--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 8. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 8. komite.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J397"/>
+  <dimension ref="A1:I397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,10 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="31" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="49" customWidth="1" min="7" max="7"/>
     <col width="143" customWidth="1" min="8" max="8"/>
     <col width="119" customWidth="1" min="9" max="9"/>
-    <col width="54" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,7 +475,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meslek Grubu Sayı</t>
+          <t>Meslek Grubu Numarası</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,11 +491,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tescilli Adresi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Meslek Grubu</t>
         </is>
       </c>
     </row>
@@ -542,11 +536,6 @@
           <t>ADALET MAH. 1586/1 SK. A NO: 1 İÇ KAPI NO: 9 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -590,11 +579,6 @@
           <t>AKALAN MAH. BAĞIMSIZLIK KÜME EVLERİ NO: 97/1A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,11 +622,6 @@
           <t>GÖZTEPE MAHALLESİ MİTHATPAŞA CAD. RIFAT BEY BLOK NO: 835A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -686,11 +665,6 @@
           <t>POLİGON MAHALLESİ İHSAN ALYANAK BLV. NO: 12 B/B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -734,11 +708,6 @@
           <t>FUAT EDİP BAKSI MAHALLESİ ANADOLU CAD. İNŞAAT APT. NO: 177 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -782,11 +751,6 @@
           <t>RÜSTEM MAHALLESİ IŞIK SK. NO: 30 A URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,11 +794,6 @@
           <t>ADALET MAHALLESİ ANADOLU CAD. MEGAPOL TOWER BLOK NO: 41 İÇ KAPI NO: 081 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -878,11 +837,6 @@
           <t>ÖREN 75.YIL CUMHURİYET MAH. NİF ÇAYI 2 SK. YF GIDA TARIM ORMAN ÜRÜNLERİ BLOK NO: 9/7 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -926,11 +880,6 @@
           <t>515 SOK. NO:41/A GÜNEŞLİ MAH. KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -974,11 +923,6 @@
           <t>YALI MAHALLESİ 6507 SK. NO: 3B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1022,11 +966,6 @@
           <t>KAZIMDİRİK MAHALLESİ 296/1 SK. NO:11/306 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1070,11 +1009,6 @@
           <t>GÜRPINAR MAH. 7232/7 SK. AY-KOOP SİTESİ NO: 24A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1118,11 +1052,6 @@
           <t>VALİ RAHMİ BEY MAH. FORBES SK. NO: 105A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1166,11 +1095,6 @@
           <t>FATİH MAH. 1203 SK. NO: 20B GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1214,11 +1138,6 @@
           <t>KOŞUKAVAK MAHALLESİ 4240 SOKAK NO:4/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1262,11 +1181,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 226 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1310,11 +1224,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: 1B82 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1358,11 +1267,6 @@
           <t>BENGİLER MAHALLESİ 6261 SK. NO:16 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1406,11 +1310,6 @@
           <t>ONUR MAHALLESİ 7334 SK. NO:30/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1454,11 +1353,6 @@
           <t>2. İNÖNÜ MAHALLESİ ALTINVADİ CAD. NO: 73 A NARLIDERE/İZMİR</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1502,11 +1396,6 @@
           <t>GÜNEY MAH. 2201/1 SK. ARZU NO: 10A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1550,11 +1439,6 @@
           <t>ZAFER MAH. 2302 SK. NO: 47/1A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1598,11 +1482,6 @@
           <t>EVKA 3 MAHALLESİ 129/3 SK. NO: 8 C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1646,11 +1525,6 @@
           <t>ADALET MAHALLESİ MANAS BULV. FOLKART TOWERS BLOK NO: 47B İÇ KAPI NO:2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1694,11 +1568,6 @@
           <t>SARILAR MAHALLESİ BEYLER YOLU (KÜME EVLER) NO:172 DAİRE:1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1742,11 +1611,6 @@
           <t>ALAÇATI MAH. 16032 SK. NO: 32/4 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1790,11 +1654,6 @@
           <t>ALAÇATI MAHALLESİ NO:29 HURMALI KÜME EVLERİ ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1838,11 +1697,6 @@
           <t>YAYLACIK MAHALLESİ GAZİ OSMANPAŞA CADDESİ SAYGIN BLOK NO: 44B İÇ KAPI NO: B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1886,11 +1740,6 @@
           <t>ÖRNEKKÖY MAH. GİRNE BUL. NO: 271 İÇ KAPI NO: 2 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1934,11 +1783,6 @@
           <t>EMEK MAH. BARIŞ CAD. NO: 51A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1982,11 +1826,6 @@
           <t>BOSTANLI MAHALLESİ 1794 SK. NO:3/B BAHAR BLOK KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2030,11 +1869,6 @@
           <t>MANSUROĞLU MAHALLESİ 1593/1 SOK. NO:32/13 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2078,11 +1912,6 @@
           <t>ARMUTLU 85.YIL CUMHURİYET MAH. SANAYİ CAD. NO: 124I KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2126,11 +1955,6 @@
           <t>AKALAN MAHALLESİ NO:109/1 BAĞIMSIZ KÜME EVLERİ KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2174,11 +1998,6 @@
           <t>KOŞUKAVAK MAHALLESİ ABDİ İPEKÇİ CAD. B BLOK NO: 35C-35D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2222,11 +2041,6 @@
           <t>OSMANGAZİ MAH. YAVUZ CAD. NO: 335A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2270,11 +2084,6 @@
           <t>DONANMACI MAHALLESİ 1724 SK. NO:13/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2318,11 +2127,6 @@
           <t>TUNA MAH. ZİYA PAŞA CAD. NO: 75A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2366,11 +2170,6 @@
           <t>ÇAMÖNÜ MAHALLESİ CLAROS BULV. NO:302/C MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2414,11 +2213,6 @@
           <t>ATAKÖY MAHALLESİ KALABAK ( KÜME EVLER ) NO: 2/- MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2462,11 +2256,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6157/1 SOKAK NO:19/D BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2510,11 +2299,6 @@
           <t>HALİLBEYLİ MAHALLESİ HALİLBEYLİ KÜME EVLERİ NO:6/2 DAİRE:1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2558,11 +2342,6 @@
           <t>RAFET PAŞA MAHALLESİ YILDIRIM BEYAZIT CAD. B BLOK NO: 217D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2606,11 +2385,6 @@
           <t>YENİ MAHALLE MAHALLESİ 8045/3 SK. NO: 2A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2654,11 +2428,6 @@
           <t>ŞEMİKLER MAH. ORDU BUL. NO: 226A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2702,11 +2471,6 @@
           <t>ERZENE MAHALLESİ YÜZBAŞI İBRAHİM HAKKI CD. B BLOK NO: 4B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2750,11 +2514,6 @@
           <t>MEHMET AKİF ERSOY MAH. KİRAZLI CAD. NO: 136A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2798,11 +2557,6 @@
           <t>FEVZİ ÇAKMAK MAH. SAKARYA CAD. ŞAHİN BLOK NO: 18A BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2846,11 +2600,6 @@
           <t>ILICA MAHALLESİ MİTHATPAŞA CD. COŞAR BLOK NO: 101A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2894,11 +2643,6 @@
           <t>MAREŞAL FEVZİ ÇAKMAK MAH. 552 SK. NO: 1 FOÇA / İZMİR</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2942,11 +2686,6 @@
           <t>BARBAROS MAH. 5227 SK. NO: 3A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2990,11 +2729,6 @@
           <t>ÇAKALTEPE MAHALLESİ 7317 SK. NO: 12/_ MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3038,11 +2772,6 @@
           <t>HIDIRLIK MAHALLESİ ATATÜRK CADDESI NO:17 SEFERİHİSAR/İZMİR</t>
         </is>
       </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3086,11 +2815,6 @@
           <t>ARMUTLU 85.YIL CUMHURİYET MAH. SANAYİ CAD. NO: 90 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3134,11 +2858,6 @@
           <t>FATİH MAHALLESİ 1185 SOK. NO: 10 İÇ KAPI NO: 1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3182,11 +2901,6 @@
           <t>SÜTÇÜLER MAHALLESİ AKEVLER CAD. NO:85 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3230,11 +2944,6 @@
           <t>İNÖNÜ MAHALLESİ 682 SK. NO:14/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3278,11 +2987,6 @@
           <t>75.YIL CUMHURİYET MAHALLESİ İNCİRLİPINAR CAD. NO: 58 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3326,11 +3030,6 @@
           <t>ERZENE MAH. 73 SK. TOKCAN NO: 1A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3374,11 +3073,6 @@
           <t>TEPECİK MAHALLESİ AKÇAKAYA KÜME EVLERİ NO: 9/1 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3422,11 +3116,6 @@
           <t>ATIFBEY MAHALLESİ 67 SOKAK NO:33/50 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3470,11 +3159,6 @@
           <t>ZAFER MAH. 2341 SK. NO: 5 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3518,11 +3202,6 @@
           <t>TUNA MAHALLESİ 1710 SK. NO: 41 A KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3566,11 +3245,6 @@
           <t>KAZIMDİRİK MAHALLESİ 180/2 SOKAK 3_AKGÜNLÜ BLOK BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3614,11 +3288,6 @@
           <t>MANSUROĞLU MAHALLESİ ANKARA CAD. NO:71 GÜMÜŞPLAZA KAT:6 DAİRE:21 BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3662,11 +3331,6 @@
           <t>ADALET MAH. MANAS BUL. NO: 39 İÇ KAPI NO: 3408 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3710,11 +3374,6 @@
           <t>YAKA KENT MAHALLESİ 8087/11 SOKAK AKASYA BLOK NO: 43A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3758,11 +3417,6 @@
           <t>85. YIL CUMHURİYET MAHALLESİ SANAYİ CADDESİ NO:31/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3806,11 +3460,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6172 SOKAK NO:15/C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3854,11 +3503,6 @@
           <t>TEPECİK MAH. AKÇAKAYA KÜME EVLERİ F BLOK NO: 6 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3902,11 +3546,6 @@
           <t>ALTINTAŞ MAHALLESİ NO:2 DÜNDARLI MEVKİİ URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3950,11 +3589,6 @@
           <t>GÜLYAKA MAH. SAİM ÇIKRIKÇI CAD. NO: 135/5 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3998,11 +3632,6 @@
           <t>ÇAKALTEPE MAH. MAHALLESİ 7313 SOK NO:24 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4046,11 +3675,6 @@
           <t>ÇİÇEKLİ MAHALLESİ ÇAMLIK CADDESİ NO:39/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4094,11 +3718,6 @@
           <t>MEVLANA MAHALLESİ 1702 SOKAK NO:39/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4142,11 +3761,6 @@
           <t>FERAHLI MAH. B.HAYRETTİN PAŞA CAD. NO: 132 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4190,11 +3804,6 @@
           <t>ALAÇATI MAH. ALAÇATI ATATÜRK BUL. NO: 71B ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4238,11 +3847,6 @@
           <t>ADALET MAH. ANADOLU CAD. MEGAPOL TOWER NO: 41 İÇ KAPI NO: 101 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4286,11 +3890,6 @@
           <t>DUMLUPINAR MAH. 132 SK. NO: 24 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4334,11 +3933,6 @@
           <t>ÇAY MAH. ŞEHİT HAKAN UYSAL SK. NO: 293 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4382,11 +3976,6 @@
           <t>ZEYTİNLİK MAHALLESİ 1132 SOKAK NO: 14 A/14A ZEYTİNLİK KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4430,11 +4019,6 @@
           <t>ÇAKALTEPE MAHALLESİ ORTA (KÜME EVLER ) CP TAVUK Apt. NO: 23 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4478,11 +4062,6 @@
           <t>ÇAKALTEPE MAHALLESİ 7338 SK. CP ORDEK TESİSİ Apt. NO: 5 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4526,11 +4105,6 @@
           <t>KÜLTÜR MAH. CUMHURİYET BUL. HARİKA APARTMAN BLOK NO: 165B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4574,11 +4148,6 @@
           <t>ÇINARLI MAH. 1574 SK. NO: 5B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4622,11 +4191,6 @@
           <t>ÖRNEKKÖY MAHALLESİ 7401 SK. NO: 78A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J87" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4670,11 +4234,6 @@
           <t>TUNA MAH. 5531/4 SK. NO: 2D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4718,11 +4277,6 @@
           <t>EĞİTİM MAHALLESİ MİMAR SİNAN SK. NO: 12A İÇ KAPI NO: 4 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4766,11 +4320,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6170 SK. NO: 6/0 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4814,11 +4363,6 @@
           <t>MERİÇ MAHALLESİ KEMALPAŞA CAD. NO: 85 A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J91" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4862,11 +4406,6 @@
           <t>DOKUZ EYLÜL MAHALLESİ 694 SOK. NO:9 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4910,11 +4449,6 @@
           <t>İSMET KAPTAN MAHALLESİ SEZER DOĞAN SK. NO:6/63 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4958,11 +4492,6 @@
           <t>BAĞYURDU YENİ MAH. OVA YOLU KÜME EVLERİ NO: 78A İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5006,11 +4535,6 @@
           <t>KEMALPAŞA MAHALLESİ ATATÜRK CD. NO:30 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5054,11 +4578,6 @@
           <t>DÜZCE MAHALLESİ KOVUKKAVAK TEPECİK YOLU KÜME EVLERİ NO:7/1 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5102,11 +4621,6 @@
           <t>KEMALPAŞA MAHALLESİ 61 SK NO:25 PINARBAŞI BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5150,11 +4664,6 @@
           <t>YEŞİLOVA MAHALLESİ ABDİ İPEKÇİ CADDESİ NO:194/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5198,11 +4707,6 @@
           <t>NO:21 OVACIK MAHALLESİ İNİCE ( KÜME EVLER ) ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5246,11 +4750,6 @@
           <t>EĞRİDERE MAH. SÖĞÜTLÜ SK. NO: 22/2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5294,11 +4793,6 @@
           <t>ZEYTİNLER MAHALLESİ NO:1 TAŞLIYAKA KÜME EVLERİ URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5342,11 +4836,6 @@
           <t>ADALET MAH. MAHALLESİ MANAS BLV NO: 39 İÇ KAPI NO: 2511 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5390,11 +4879,6 @@
           <t>YALI MAH. MAHALLESİ İDİL BİRET CADDESİ NO:16 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5438,11 +4922,6 @@
           <t>OĞLANANASI CUMHURİYET MAHALLESİ FEVZİ ÇAKMAK CADDESİ NO:164 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5486,11 +4965,6 @@
           <t>HALİLBEYLİ MAH. DERİNKUYU SK. NO: 35 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5534,11 +5008,6 @@
           <t>ATAKÖY MAHALLESİ 5602 SK. NO:18 NO: 18 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5582,11 +5051,6 @@
           <t>ADATEPE MAHALLESİ ERDEM CADDESI NO:2/A BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5630,11 +5094,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6170 SK. NO:9 16/16 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5678,11 +5137,6 @@
           <t>BOSTANLI MAH. CENGİZ TOPEL CAD. ADİLE KOCAGÖZOĞLU BLOK NO: 26A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5726,11 +5180,6 @@
           <t>EGEMENLİK MAHALLESİ 6106/4 SK. Z01 Apt. NO: 46 A/_ BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5774,11 +5223,6 @@
           <t>ŞİRİNKAPI MAH. GAZİ OSMAN PAŞA CAD. NO: 127 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5822,11 +5266,6 @@
           <t>YEŞİLYURT MAHALLESİ TOKMAKALAN YOLU KÜME EVLERİ NO: 19 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -5870,11 +5309,6 @@
           <t>DAMLACIK MAHALLESİ 9524 SOKAK NO: 14 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -5918,11 +5352,6 @@
           <t>OĞLANANASI CUMHURİYET MAH. FEVZİ ÇAKMAK CAD. NO: 158 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -5966,11 +5395,6 @@
           <t>YENMİŞ MAH. YENMİŞ FABRİKA YOLU KÜME EVLERİ NO: 3 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6014,11 +5438,6 @@
           <t>YENİ MAHALLE MAHALLESİ 8045/3 SK. NO: 2A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6062,11 +5481,6 @@
           <t>EĞRİDERE MAH. SALKIM SK. RAMAZAN YAYLA SİTESİ NO: 2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6110,11 +5524,6 @@
           <t>DOĞANLAR MAHALLESİ 1454/1 SOKAK NO:3/B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6158,11 +5567,6 @@
           <t>ALSANCAK MAH. 1476 SK. AKSOY PLAZA BLOK NO: 2 İÇ KAPI NO: 18 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6206,11 +5610,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6254,11 +5653,6 @@
           <t>ÇINARKÖY MAHALLESİ KIROVASI (KÜME EVLER) NO:14/A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6302,11 +5696,6 @@
           <t>TUNA MAHALLESİ 5500/3 SOK. NO:16 ÇAMDİBİ / İZMİR</t>
         </is>
       </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6350,11 +5739,6 @@
           <t>KAZIMDİRİK MAH. MUSTAFA KEMAL CAD. TENGİZ NO: 123G BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6398,11 +5782,6 @@
           <t>HALİL BEYLİ MAHALLESİ ANKARA ASVALTI NO:21/B KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6446,11 +5825,6 @@
           <t>CENGİZHAN MAH. 1620/38 SK. NO: 9 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6494,11 +5868,6 @@
           <t>BARBAROS MAHALLESİ 354 SK. NO:36/2 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6542,11 +5911,6 @@
           <t>YENİ MAHALLESİ İZMİR ANKARA CAD. NO: 20 /1A/1 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6590,11 +5954,6 @@
           <t>KÜLTÜR MAHALLESİ ATATÜRK BULVARI NO:228 KAT:5 DAİRE:8 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6638,11 +5997,6 @@
           <t>BARBAROS MAH. 5301/2 SK. NO: 4 İÇ KAPI NO: 210 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6686,11 +6040,6 @@
           <t>ADALET MAHALLESİ HAYDAR ALİYEV CAD. NO: 61 F BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -6734,11 +6083,6 @@
           <t>ADALET MAHALLESİ HAYDAR ALİYEV CAD. NO: 61 C/0 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -6782,11 +6126,6 @@
           <t>ADALET MAH. 1586/1 SK. A BLOK NO: 1 İÇ KAPI NO: 9 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -6830,11 +6169,6 @@
           <t>75. YIL CUMHURİYET MAHALLESİ DARI TEPESİ SK. NO:1/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -6878,11 +6212,6 @@
           <t>VALİ RAHMİ BEY MAHALLESİ MENDERES CAD. NO: 145 /2C/0 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -6926,11 +6255,6 @@
           <t>GÖKDERE MAH. GÖKDERE CAD. NO: 21 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -6974,11 +6298,6 @@
           <t>KOŞUKAVAK MAH. 4218/1 SK. C BLOK NO: 1C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7022,11 +6341,6 @@
           <t>KEMALPAŞA OSB MAH. İZMİR ANKARA CAD. NO: 358 İÇ KAPI NO: 4 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7070,11 +6384,6 @@
           <t>GAZİOSMANPAŞA MAHALLESİ 5454 SOKAK NO:25/B ÇAMDİBİ BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7118,11 +6427,6 @@
           <t>YENİŞEHİR MAH. 1145/1 SK. NO: 55C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7166,11 +6470,6 @@
           <t>YAKAKÖY MAHALLESİ KİRAZ SK. NO: 22 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7214,11 +6513,6 @@
           <t>KAZIMDİRİK MAH. 364/11 SK. NO: 1 İÇ KAPI NO: 2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7262,11 +6556,6 @@
           <t>FIRAT MAHALLESİ 289/54 SK. NO:69/B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7310,11 +6599,6 @@
           <t>LATİFE HANIM MAHALLESİ 7690 SOKAK NO:2/2 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7358,11 +6642,6 @@
           <t>KARACAOĞLAN MAH. 6167 SK. NO: 40Z BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7406,11 +6685,6 @@
           <t>KAZIMDİRİK MAH. 296 SK. NO: 8 İÇ KAPI NO: 109 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7454,11 +6728,6 @@
           <t>BAĞYURDU YENİ MAHALLESİ İZMİR ANKARA CAD. NO: 737 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7502,11 +6771,6 @@
           <t>KARACAAĞAÇ MAH. 4011 SK. EGE TAV KULUÇKA TESİSİ BLOK NO: 4 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7550,11 +6814,6 @@
           <t>ONUR MAHALLESİ MİTHATPAŞA CAD. EROK APARTMANI SİT. B BLOK APT.NO:89/17 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7598,11 +6857,6 @@
           <t>ADALET MAHALLESİ 2084/8 SOKAK NO:32/B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7646,11 +6900,6 @@
           <t>RÜSTEM MAHALLESİ ÜZÜM SOKAK NO:22 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -7694,11 +6943,6 @@
           <t>MANSUROĞLU MAHALLESİ ANKARA CAD. NO:81/90 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -7742,11 +6986,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 İNŞAAT Sit. İNŞAAT Apt. KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -7790,11 +7029,6 @@
           <t>SİTELER MAH. MİTHATPAŞA CAD. NO: 583 İÇ KAPI NO: 1 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -7838,11 +7072,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ GAZİ BULVARI NO: 185 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -7886,11 +7115,6 @@
           <t>BAYRAKLI MAHALLESİ 1640 SOK. NO: 2A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -7934,11 +7158,6 @@
           <t>ŞEMİKLER MAH. 6275/7 SK. TELLIBAHCE SIENA BLOK NO: 2B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -7982,11 +7201,6 @@
           <t>GÜZELYURT MAHALLESİ EŞREFPAŞA CADDESİ NO:36/B KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8030,11 +7244,6 @@
           <t>KORUTÜRK MAHALLESİ MİTHATPAŞA CAD. NO: 235C İÇ KAPI NO: 6 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8078,11 +7287,6 @@
           <t>ÇAKABEY MAHALLESİ 2250 SK. NO:50 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8126,11 +7330,6 @@
           <t>ATAKÖY MAH. 5621 SK. A BLOK İDARİ BİNA NO: 30A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8174,11 +7373,6 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ TAŞLI YOL CADDESİ KÜME EVLER SOKAK NO:98 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8222,11 +7416,6 @@
           <t>ONUR MAHALLESİ 7334 SK. NO: 30 A BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8270,11 +7459,6 @@
           <t>BOĞAZİÇİ MAHALLESİ 2345 SOKAK NO:9/B / İZMİR</t>
         </is>
       </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8318,11 +7502,6 @@
           <t>KAZIMDİRİK MAHALLESİ SÜVARİ CAD. NO:47/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8366,11 +7545,6 @@
           <t>YEŞİLOVA MAH. 4049/3 SK. NO: 16 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8414,11 +7588,6 @@
           <t>AYDIN MAHALLESİ 4307 SOKAK NO: 7 İÇ KAPI NO: 11 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8462,11 +7631,6 @@
           <t>AOSB MAH. 10022 SK. NO: 9 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8510,11 +7674,6 @@
           <t>KARACAOĞLAN MAH. 6170 SK. NO: 11/7 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8558,11 +7717,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6170 SK. NO: 6/5 İÇ KAPI NO: 5 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8606,11 +7760,6 @@
           <t>İNÖNÜ MAHALLESİ 677/19 SK. OTOKENT BLOK NO: 123 İÇ KAPI NO:Z122 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -8654,11 +7803,6 @@
           <t>ÇAMLIÇAY MAH. MAREŞAL FEVZİ ÇAKMAK BUL. NO: 24 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -8702,11 +7846,6 @@
           <t>AKDENİZ MAHALLESİ ŞEHİT FETHİBEY CADDESİ HERİS TOWER BLOK NO: 55 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -8750,11 +7889,6 @@
           <t>KARACAAĞAÇ MAHALLESİ YOL ÜSTÜ MEVKİİ SK. NO: 42 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -8798,11 +7932,6 @@
           <t>YALI MAHALLESİ 6507 SK. NO: 3B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -8846,11 +7975,6 @@
           <t>YENİMAHALLE MAHALLESİ ESKİ HAVAALANI CD. NO:108/MC B6 BLOK ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -8894,11 +8018,6 @@
           <t>MANSUROĞLU MAH. ANKARA CAD. NO: 81 İÇ KAPI NO: 51 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -8942,11 +8061,6 @@
           <t>ÖREN 75.YIL CUMHURİYET MAH. LİMON SK. NO: 2/1A İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -8990,11 +8104,6 @@
           <t>IŞIKLAR MAH. AYDINLAR CAD. SS.GERİ KAZ.KOOP. SİTESİ NO: 73 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9038,11 +8147,6 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ POSTAKODU:35730 ÖTEYAKA KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9086,11 +8190,6 @@
           <t>ÇINARLI MAH. OZAN ABAY CAD. EGEPERLA NO: 10 İÇ KAPI NO: 041 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9134,11 +8233,6 @@
           <t>İMBATLI MAHALLESİ 6076/4 SOKAK NO:4/6 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9182,11 +8276,6 @@
           <t>DÜZCE MAHALLESİ KOVUKKAVAK TEPECİK YOLU CADDESİ KÜMEEVLERİ SOKAK NO:14 SEFERİHİSAR/İZMİR</t>
         </is>
       </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9230,11 +8319,6 @@
           <t>YUKARIKIZILCA MERKEZ MAHALLESİ KIRAVLUSU KÜME EVLERİ NO: 5 B/1 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9278,11 +8362,6 @@
           <t>KARACAOĞLAN MAH. 6166 SK. NO: 28 İÇ KAPI NO: Z1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9326,11 +8405,6 @@
           <t>ZEYTİNLİK MAH. 1163 SK. NO: 65A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9374,11 +8448,6 @@
           <t>EGEMENLİK MAH. 6106/15 SK. NO: 2F BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9422,11 +8491,6 @@
           <t>KARAKUYU MAHALLESİ 7655 SOKAK NO:110 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9470,11 +8534,6 @@
           <t>HALİLBEYLİ MAHALLESİ ERGEN SK. NO: 19 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9518,11 +8577,6 @@
           <t>HALİLBEYLİ MAHALLESİ HALİLBEYLİ ( KÜME EVLER ) NO: 36/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9566,11 +8620,6 @@
           <t>BOSTANLI MAHALLESİ 1797 SK NO: 4B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -9614,11 +8663,6 @@
           <t>ÜÇKUYULAR MAHALLESİ İNÖNÜ CADDESİ NO:658/D KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -9662,11 +8706,6 @@
           <t>GÖRECE CUMHURİYET MAHALLESİ FAHRİ KORUTÜRK BULVARI NO:4/B3 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -9710,11 +8749,6 @@
           <t>MANAVKUYU MAH. DUMLUPINAR CAD. GÖNÜL NO: 55C BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J193" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -9758,11 +8792,6 @@
           <t>AŞIK VEYSEL MAH. 5811 SK. NO: 19A İÇ KAPI NO: A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J194" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -9806,11 +8835,6 @@
           <t>AKDENİZ MAHALLESİ ATATÜRK CAD. NO: 132/41 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J195" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -9854,11 +8878,6 @@
           <t>AKDENİZ MAHALLESİ ŞEHİTFETHİ BEY CADDESİ NO:120/406 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -9902,11 +8921,6 @@
           <t>ALTINTAŞ MAH. İNÖNÜ CAD. NO: 156C İÇ KAPI NO: C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -9950,11 +8964,6 @@
           <t>ATİLLA MAH. 466 SK. NO: 30A İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -9998,11 +9007,6 @@
           <t>HALİLBEYLİ MAH. HALİLBEYLİ KÜME EVLERİ NO: 9/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10046,11 +9050,6 @@
           <t>75.YIL CUMHURİYET MAHALLESİ ARIKALTI CADDESİ NO:3/2A1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J200" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10094,11 +9093,6 @@
           <t>YENİ MAHALLESİ NO:35 SARI CEVİZ KÜME EVLER MEVKİİ BAĞYURDU KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J201" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10142,11 +9136,6 @@
           <t>BAĞYURDU YENİ MAH. OVA YOLU KÜME EVLERİ NO: 216A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J202" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10190,11 +9179,6 @@
           <t>KEMALPAŞA MAH. 7026/1 SK. NO: 1 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10238,11 +9222,6 @@
           <t>SELVİLİ MAHALLESİ ŞEHİT PİLOT VOLKAN KOÇYİĞİT BLV. NO:52/0 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10286,11 +9265,6 @@
           <t>ATAŞEHİR MAH. ATATÜRK BUL. NO: 32A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J205" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10334,11 +9308,6 @@
           <t>YENİGÜN MAHALLESİ GAZİ OSMAN PAŞA BLV. NO:77/32 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10382,11 +9351,6 @@
           <t>CÜNEYT BEY MAHALLESİ DOĞAN SK. NO:56/A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10430,11 +9394,6 @@
           <t>ŞEMİKLER MAHALLESİ ERDOĞAN AKKAYA SOKAK NO: 8/2 İÇ KAPI NO: 1 GÜMÜŞPALA KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10478,11 +9437,6 @@
           <t>MEVLANA MAHALLESİ 1711/1 SOKAK NO:11/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10526,11 +9480,6 @@
           <t>ARMUTLU HÜRRİYET MAH. AYDERESİ SULUK KÜME EVLERİ NO: 39 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -10574,11 +9523,6 @@
           <t>ONUR MAHALLESİ ATA CADDESI NO:84/B BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -10622,11 +9566,6 @@
           <t>EĞİTİM MAH. ATA CAD. TOLGA NO: 79A BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -10670,11 +9609,6 @@
           <t>KEMALPAŞA MAH. 7057/1 SK. NO: 35 İÇ KAPI NO: 2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -10718,11 +9652,6 @@
           <t>İNÖNÜ MAHALLESİ 677/19 SK. OTOKENT SİT. SOSYAL TESİS APT. NO: 123/Z154 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J214" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -10766,11 +9695,6 @@
           <t>HALİLBEYLİ MAHALLESİ 8 SOKAK NO:35/B KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J215" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -10814,11 +9738,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6167 SK. NO: 40 AB/ BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J216" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -10862,11 +9781,6 @@
           <t>ANSIZCA MAHALLESİ ANSIZCA KÖY YOLU NO:272/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J217" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -10910,11 +9824,6 @@
           <t>DEDEBAŞI MAHALLESİ 6123 SK. NO: 28 A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -10958,11 +9867,6 @@
           <t>ÜMİT MAH. 1411/6 SK. OSMAN NURİ AKSU SİTESİ NO: 16 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11006,11 +9910,6 @@
           <t>KAZIMDİRİK MAHALLESİ 296 SOKAK NO: 8 İÇ KAPI NO: 114 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11054,11 +9953,6 @@
           <t>MEVLANA MAHALLESİ 1776 SOKAK NO:13/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11102,11 +9996,6 @@
           <t>İNÖNÜ MAH. 677/19 SK. OTOKENT NO: 123 İÇ KAPI NO: Z153 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J222" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11150,11 +10039,6 @@
           <t>GÖKYAKA MAHALLESİ GÖKYAKA YOLU KÜME EVLERİ NO: 75/1 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11198,11 +10082,6 @@
           <t>ATAŞEHİR MAH. 8221 SK. ÇINAR BLOK NO: 30B ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J224" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11246,11 +10125,6 @@
           <t>EGEMENLİK MAHALLESİ 6016/10 NO:11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J225" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11294,11 +10168,6 @@
           <t>İSMET KAPTAN MAH. ŞAİR EŞREF BUL. YÖRSAN İŞMERKEZİ NO: 26 İÇ KAPI NO: 12 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J226" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11342,11 +10211,6 @@
           <t>ÖREN 75.YIL CUMHURİYET MAH. ARIKALTI CAD. NO: 205 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11390,11 +10254,6 @@
           <t>BUCAOSB MAHALLESİ 2/20 SK. NO:16 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J228" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11438,11 +10297,6 @@
           <t>ATATÜRK MAH. 2222 SK. NO: 126 İÇ KAPI NO: 1 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11486,11 +10340,6 @@
           <t>BAHARİYE MAH. YAŞAR AKSOY SK. NO: 26A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -11534,11 +10383,6 @@
           <t>SEKİZ EYLÜL MAH. 72/1 SK. NO: 1 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -11582,11 +10426,6 @@
           <t>EFELER MAHALLESİ MENDERES CADDESI NO:169 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -11630,11 +10469,6 @@
           <t>YİĞİTLER MAHALLESİ 331 SK. NO:13/B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -11678,11 +10512,6 @@
           <t>KAZIMDİRİK MAHALLESİ SANAYİ CAD. NO: 33 İÇ KAPI NO: Z04 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -11726,11 +10555,6 @@
           <t>GÖKSU MAHALLESİ 684/6 SK. NO: 3 B BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -11774,11 +10598,6 @@
           <t>YENİKENT MAH. HAKKI URAL CAD. GENÇ URLALILAR NO: 23 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -11822,11 +10641,6 @@
           <t>YENİ MAHALLESİ HALİTBAĞI KIRÜSTÜ KÜMEEVLER MEVKİİ NO:29/30 BAĞYURDU KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -11870,11 +10684,6 @@
           <t>TEPEKULE MAH. 2084/8 SK. NURCAN SİTESİ GÜLAY NO: 75 İÇ KAPI NO: 30 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J238" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -11918,11 +10727,6 @@
           <t>KÖY İÇİ MAHALLESİ 8050 SK. NO: 30/1A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J239" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -11966,11 +10770,6 @@
           <t>CUMHURİYET MAHALLESİ ANKARA CAD. NO:4 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J240" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -12014,11 +10813,6 @@
           <t>IŞIKLAR MAH. 6016/10 SK. S.S. GERİ KAZANICILAR SİTESİ NO: 16 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J241" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -12062,11 +10856,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6170 SK. Ş. KAVALAR SİTESİ NO: 17E BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J242" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -12110,11 +10899,6 @@
           <t>GÖZTEPE MAH. MİTHATPAŞA CAD. ÇELEBİ NO: 844A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J243" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -12158,11 +10942,6 @@
           <t>EGEMENLİK MAH. ALP CAD. NO: 25A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J244" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -12206,11 +10985,6 @@
           <t>RAFET PAŞA MAH. ABDİ İPEKÇİ CAD. NO: 137A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J245" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -12254,11 +11028,6 @@
           <t>KEMALPAŞA MAH. ATATÜRK CAD. NO: 62A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -12302,11 +11071,6 @@
           <t>ZÜBEYDE HANIM MAHALLESİ 7532 SK. NO:114 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -12350,11 +11114,6 @@
           <t>MANAVKUYU MAHALLESİ 234/1 SOK. NO: 1 İÇ KAPI NO: 9 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -12398,11 +11157,6 @@
           <t>ŞEMİKLER MAHALLESİ ERDOĞAN AKKAYA SK. NO: 8/2 İÇ KAPI NO: 1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -12446,11 +11200,6 @@
           <t>YALI MAHALLESİ 6440/3 SK. DENİZ APT. NO: 22 B KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -12494,11 +11243,6 @@
           <t>HALİL BEYLİ MAHALLESİ MUSTAFA KEMAL ATATÜRK NO: 48 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J251" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -12542,11 +11286,6 @@
           <t>ALTINKUM MAH. SANCAK MEVKİİ SK. NO: 28 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -12590,11 +11329,6 @@
           <t>GÜRPINAR MAHALLESİ 7232/9 SK. AY-KOOP Sit. NO: 37 A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -12638,11 +11372,6 @@
           <t>TUNA MAHALLESİ KEMALPAŞA CAD. NO:170/D KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J254" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -12686,11 +11415,6 @@
           <t>NOHUTALAN MAHALLESİ 7802 SK. NO:8 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J255" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -12734,11 +11458,6 @@
           <t>YENİCE MAHALLESİ KARANFİL SK NO:6/2 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J256" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -12782,11 +11501,6 @@
           <t>KARACAOĞLAN MAHALLESİ 167 SK. NO:40/Z-10 IŞIKKENT BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J257" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -12830,11 +11544,6 @@
           <t>EFELER MAHALLESİ KOŞU YOLU CAD. NO: 49 A/A BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J258" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -12878,11 +11587,6 @@
           <t>ŞEMİKLER MAH. 6275/7 SK. TELLIBAHCE SIENA NO: 2B KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J259" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -12926,11 +11630,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6167 SK A Apt. NO: 38 A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -12974,11 +11673,6 @@
           <t>ATAŞEHİR MAH. CAHER DUDAYEV BUL. ÇİĞLİ KARYA EVLERİ SİTESİ AKASYA NO: 3A İÇ KAPI NO: 13 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -13022,11 +11716,6 @@
           <t>EGEMENLİK MAHALLESİ AYDINLAR CAD. SS.GERİ KAZ.KOOP. SİTESİ NO: 67-1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -13070,11 +11759,6 @@
           <t>HALİLBEYLİ MAHALLESİ KÜMEEVLER SOKAK NO:60 BAĞYURDU KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -13118,11 +11802,6 @@
           <t>ARMUTLU 85. YIL CUMHURİYET MAHALLESİ SANAYİ CAD. NO: 124I KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -13166,11 +11845,6 @@
           <t>KUYUCAK MAHALLESİ NO:206 KUYUCAK YOLU ( KÜME EVLER ) KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -13214,11 +11888,6 @@
           <t>TURGUT MAHALLESİ ARAPLAR (KÜME EVLER) NO:13 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -13262,11 +11931,6 @@
           <t>GÜZELYALI MAHALLESİ İNÖNÜ CAD. NO: 514/17 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -13310,11 +11974,6 @@
           <t>KIRKLAR MAH. 5002/4 SK. NO: 4 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -13358,11 +12017,6 @@
           <t>DEĞİRMENDERE MAH. ŞEHİT ALİ PINAR SK. NO: 94 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -13406,11 +12060,6 @@
           <t>EGEMENLİK MAHALLESİ AYDINLAR CAD. S.S. GERİ KAZANICILAR SİT. NO: 122 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -13454,11 +12103,6 @@
           <t>TURGUT MAHALLESİ ARAPLAR (KÜME EVLER) NO: 15/1 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -13502,11 +12146,6 @@
           <t>SARIYER MAH. COŞKUN KALE SK. NO: 34/1 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J272" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -13550,11 +12189,6 @@
           <t>ATIFBEY MAH. 67 SK. NO: 33 İÇ KAPI NO: 32 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -13598,11 +12232,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6169 SK. NO:14 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -13646,11 +12275,6 @@
           <t>KURUÇEŞME MAHALLESİ 205/16 SK. NO:17 3/B BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -13694,11 +12318,6 @@
           <t>ZAFER MAHALLESİ 2332 SK. NO: 1 1/1 BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -13742,11 +12361,6 @@
           <t>KAZIMDİRİK MAH. 372/26 SK. NO: 7 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J277" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -13790,11 +12404,6 @@
           <t>SAKARYA MAH. 3011 SK. NO: 4B ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J278" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -13838,11 +12447,6 @@
           <t>SAKARYA MAHALLESİ 3011 SK. NO: 4 B ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J279" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -13886,11 +12490,6 @@
           <t>İTOB ORGANİZE SANAYİ BÖLGESİ MAHALLESİ 10008 SOKAK NO:4 TEKELİ MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J280" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -13934,11 +12533,6 @@
           <t>ZÜBEYDE HANIM MAH. 7448/10 SK. ÖZER NO: 4A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J281" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -13982,11 +12576,6 @@
           <t>NARLI MAHALLESİ MİTHATPAŞA CAD. NO: 353 A NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J282" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -14030,11 +12619,6 @@
           <t>KOŞUKAVAK MAH. 4218/1 SK. C BLOK NO: 1D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J283" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -14078,11 +12662,6 @@
           <t>FİKRİ ALTAY MAHALLESİ 6184/3 SK. NO: 4 B KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J284" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -14126,11 +12705,6 @@
           <t>MANSUROĞLU MAHALLESİ 286/3 SOKAK NO: 11A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J285" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -14174,11 +12748,6 @@
           <t>ALSANCAK MAH. ATATÜRK CAD. SOYHAN NO: 378/1 İÇ KAPI NO: 21 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J286" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -14222,11 +12791,6 @@
           <t>DUMLUPINAR MAH. 132 SK. NO: 12 İÇ KAPI NO: Z51 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J287" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -14270,11 +12834,6 @@
           <t>OSMANGAZİ MAHALLESİ DUMLUPINAR CAD. NO:205/A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J288" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -14318,11 +12877,6 @@
           <t>OSMANGAZİ MAHALLESİ YAVUZ CADDESİ BARIŞ APT. NO:291 A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J289" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -14366,11 +12920,6 @@
           <t>MEHMET AKİF ERSOY MAHALLESİ KİRAZLI CAD. NO:136/A KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J290" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -14414,11 +12963,6 @@
           <t>KEMALPAŞA MAHALLESİ 7093/1 SOKAK NO: 12 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J291" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -14462,11 +13006,6 @@
           <t>ANSIZCA MAHALLESİ ANSIZCA KÖY YOLU ( KÜME EVLER ) NO:279/1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J292" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -14510,11 +13049,6 @@
           <t>KAYNAKLAR MERKEZ MAH. 2029 SK. NO: 6 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J293" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -14558,11 +13092,6 @@
           <t>ŞİRİNTEPE MAH. 8124 SK. NO: 7 İÇ KAPI NO: 17 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J294" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -14606,11 +13135,6 @@
           <t>ADALET MAH. 2084/8 SK. HÜROL SİTESİ SEVİM BLOK NO: 32A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J295" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -14654,11 +13178,6 @@
           <t>SEKİZ EYLÜL MAHALLESİ KÜPLÜCEALTI (KÜME EVLER ) NO: 108 B KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J296" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -14702,11 +13221,6 @@
           <t>ALİ FUAT CEBESOY MAH. 9197/3 SK. NO: 2/1 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J297" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -14750,11 +13264,6 @@
           <t>ALSANCAK MAH. 1453 SK. NO: 21 İÇ KAPI NO: MÜSTAKİL KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J298" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -14798,11 +13307,6 @@
           <t>ATAKÖY MAHALLESİ KALABAK KÜME EVLERİ NO: 18 İÇ KAPI NO: 1 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J299" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -14846,11 +13350,6 @@
           <t>OSMANGAZİ MAHALLESİ 587 SOK. NO: 28 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J300" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -14894,11 +13393,6 @@
           <t>YUNUS EMRE MAHALLESİ 4255 SK. NO:30/A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J301" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -14942,11 +13436,6 @@
           <t>HALİLBEYLİ MAHALLESİ NO:25/1A HALİLBEYLİ KÜME EVLER KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J302" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -14990,11 +13479,6 @@
           <t>BAHÇELİEVLER MAHALLESİ 1851/4 SK. YAYLA Apt. NO: 2 -1/15 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J303" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -15038,11 +13522,6 @@
           <t>YEŞİLOVA MAHALLESİ ABDİ İPEKÇİ CADDESİ NO:118/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J304" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -15086,11 +13565,6 @@
           <t>MUAMMER AKAR MAH. İNÖNÜ CAD. SEREN NO: 819A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J305" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -15134,11 +13608,6 @@
           <t>SIĞACIK MAHALLESİ ESKİ SIĞACIK YOLU CAD. NO: 8 /1/1 SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J306" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -15182,11 +13651,6 @@
           <t>ÖREN 75. YIL CUMHURİYET MAHALLESİ LİMONCUK-2 SK. NO:6 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J307" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -15230,11 +13694,6 @@
           <t>YUNUS EMRE MAH. 7402/7 SK. NO: 12/1C BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J308" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -15278,11 +13737,6 @@
           <t>GÖKSU MAHALLESİ AYDIN HATBOYU CAD. NO:461 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J309" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -15326,11 +13780,6 @@
           <t>ADALET MAH. MAHALLESİ MANAS BLV NO:47/B FOLKART TOWERS BLOK İÇ KAPI NO: 2809 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J310" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -15374,11 +13823,6 @@
           <t>GÖRECE CUMHURİYET MAHALLESİ MUHTAR NİHAT SERTEL CADDESİ NO:13/1 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J311" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -15422,11 +13866,6 @@
           <t>EGEMENLİK MAHALLESİ 6016/1 SOKAK NO:3/A BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J312" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -15470,11 +13909,6 @@
           <t>BARIŞ MAH. 333 SK. NO: 54A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J313" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -15518,11 +13952,6 @@
           <t>EVKA 3 MAHALLESİ 121/4 SK. ÇITAK APARTMANI C BLOK APT. NO: 3 A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J314" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -15566,11 +13995,6 @@
           <t>BAHAR MAHALLESİ 2904 SOKAK NO:1 BOZYAKA KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J315" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -15614,11 +14038,6 @@
           <t>BAYRAKLI MAHALLESİ 1898/1 SOK. NO:3/A BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J316" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -15662,11 +14081,6 @@
           <t>HÜRRİYET MAHALLESİ 471 SK. NO: 37 B/B BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J317" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -15710,11 +14124,6 @@
           <t>85. YIL CUMHURİYET MAHALLESİ SANAYİ CADDESİ NO:122 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J318" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -15758,11 +14167,6 @@
           <t>EGEMENLİK MAHALLESİ 6096 SK. NO: 6 İÇ KAPI NO: 31 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J319" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -15806,11 +14210,6 @@
           <t>EGEMENLİK MAHALLESİ 6082 SOKAK NO:4 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J320" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -15854,11 +14253,6 @@
           <t>ÖRNEKKÖY MAHALLESİ BAŞ PEHLİVAN KARAALİ CADDESİ NO: 30A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J321" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -15902,11 +14296,6 @@
           <t>TOROSAN MAHALLESİ NO:362/A ÇEŞME URLA İZMİR ASFALTI URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J322" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -15950,11 +14339,6 @@
           <t>KEMALPAŞA OSB MAHALLESİ 503 SK. NO: 224 KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J323" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -15998,11 +14382,6 @@
           <t>YOLÜSTÜ MAHALLESİ NO:1 KÖSELER MEVKİİ BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J324" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -16046,11 +14425,6 @@
           <t>MANSUROĞLU MAH. ANKARA CAD. NO: 81 İÇ KAPI NO: 10 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J325" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -16094,11 +14468,6 @@
           <t>ADALET MAH. MAHALLESİ MANAS BLV NO:47/B FOLKART TOWERS BLOK İÇ KAPI NO: 2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J326" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -16142,11 +14511,6 @@
           <t>ADATEPE MAH. 4/1 SK. NIĞDELILER SİTESİ NO: 4 İÇ KAPI NO: 25 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J327" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -16190,11 +14554,6 @@
           <t>ADALET MAH. 1594/27 SK. NO: 2B BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J328" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -16238,11 +14597,6 @@
           <t>YALI MAH. 173 SK. NO: 1 İÇ KAPI NO: 2 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J329" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -16286,11 +14640,6 @@
           <t>ADALET MAHALLESİ ANADOLU CAD. MEGAPOL TOWER BLOK NO: 41 İÇ KAPI NO: 081 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J330" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -16334,11 +14683,6 @@
           <t>KEMALPAŞA MAH. 7412 SK. NO: 4 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J331" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -16382,11 +14726,6 @@
           <t>ÇAKALTEPE MAHALLESİ ORTA (KÜME EVLER ) NO:32/1 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J332" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -16430,11 +14769,6 @@
           <t>YUNUS EMRE MAH. 4154 SK. NO: 75 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J333" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -16478,11 +14812,6 @@
           <t>İTOB OSB MAHALLESİ 10023 SK. NO: 24 MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J334" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -16526,11 +14855,6 @@
           <t>PİRİ REİS MAHALLESİ İNÖNÜ CAD. STAD APT. NO: 230 B KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J335" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -16574,11 +14898,6 @@
           <t>DEĞİRMENDERE FEVZİ ÇAKMAK MAHALLESİ BAŞPINAR SK. NO:10 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J336" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -16622,11 +14941,6 @@
           <t>ATATÜRK MAHALLESİ 2210 SK. NO:2 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J337" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -16670,11 +14984,6 @@
           <t>DOĞANLAR MAHALLESİ 1600 SOK. İZELTAŞ SİTESİ NO: 1B BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J338" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -16718,11 +15027,6 @@
           <t>FATİH MAHALLESİ 1179 SK. NO:1/10B A3 BLOK GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J339" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -16766,11 +15070,6 @@
           <t>RÜSTEM MAHALLESİ ÜZÜM SOKAK NO:22 URLA/İZMİR</t>
         </is>
       </c>
-      <c r="J340" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -16814,11 +15113,6 @@
           <t>HÜRRİYET MAHALLESİ NAMIK KEMAL CADDESİ NO:52/54/6 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -16862,11 +15156,6 @@
           <t>DUMLUPINAR MAH. 79 SK. NO: 63A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -16910,11 +15199,6 @@
           <t>SERİNTEPE MAH. KEMALPAŞA CAD. NO: 72A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -16958,11 +15242,6 @@
           <t>HALİLBEYLİ MAH. HALİLBEYLİ KÜME EVLERİ SARGIN YEM SİTESİ NO: 56 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -17006,11 +15285,6 @@
           <t>ONUR MAH. MANDALİN SK. DURU NO: 9 İÇ KAPI NO: 7 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -17054,11 +15328,6 @@
           <t>ATAŞEHİR MAH. 8001 SK. NO: 21 İÇ KAPI NO: 403 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J346" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -17102,11 +15371,6 @@
           <t>VALİ RAHMİ BEY MAH. FORBES SK. SAMANCI NO: 156C İÇ KAPI NO: C BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J347" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -17150,11 +15414,6 @@
           <t>KARACAOĞLAN MAH. 6165 SK. NEVZAT KAVALA SİTESİ A NO: 8A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J348" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -17198,11 +15457,6 @@
           <t>BUCAOSB MAHALLESİ 2/20 SK. BEGOS SİT. NO: 43/_ BUCA/İZMİR</t>
         </is>
       </c>
-      <c r="J349" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -17246,11 +15500,6 @@
           <t>SAYGI MAH. 2722 SK. NO: 11A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J350" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -17294,11 +15543,6 @@
           <t>UMURBEY MAH. 1501 SK. NO: 2A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J351" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -17342,11 +15586,6 @@
           <t>KAZIMDİRİK MAH. 375 SK. NO: 11/1 İÇ KAPI NO: 101 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J352" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -17390,11 +15629,6 @@
           <t>BULGURCA MAH MAHALLESİ 6821 SK. NO: 10A İÇ KAPI NO: A MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J353" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -17438,11 +15672,6 @@
           <t>BOSTANLI MAHALLESİ 1787/1 SK. NO: 25 /1A/1 KARŞIYAKA/İZMİR</t>
         </is>
       </c>
-      <c r="J354" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -17486,11 +15715,6 @@
           <t>EGEMENLİK MAHALLESİ 6153 SK. ERİM-1 SİT. A APT. NO: 3 D/_ BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J355" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -17534,11 +15758,6 @@
           <t>KEMALPAŞA MAHALLESİ 7097 SOKAK NO:4 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J356" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -17582,11 +15801,6 @@
           <t>RÜSTEM MAHALLESİ URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J357" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -17630,11 +15844,6 @@
           <t>HALİLBEYLİ MAH. BAHAR YOLU KÜME EVLERİ TEKINLER TARIM IŞT. SAN. TIC. LTD. ŞTI. NO: 59 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J358" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -17678,11 +15887,6 @@
           <t>EVKA-2 MAHALLESİ 6857 SK. NO:3/0 ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J359" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -17726,11 +15930,6 @@
           <t>YALI MAHALLESİ 6319 SK. NO: 22 A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J360" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -17774,11 +15973,6 @@
           <t>NO:31 BADEMLER MAH. 15019/1 SK. URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J361" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -17822,11 +16016,6 @@
           <t>GÖLOVA MAH. MAHALLESİ 7604 SK. NO: 3/2 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J362" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -17870,11 +16059,6 @@
           <t>ŞEMİKLER MAHALLESİ 6200 SK. NO:5/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J363" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -17918,11 +16102,6 @@
           <t>CÜNEYT BEY MAHALLESİ KUVAYİ MİLLİYE CD NO: 13 İÇ KAPI NO: 8 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J364" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -17966,11 +16145,6 @@
           <t>ADALET MAH. 1594/16 SK. NO: 19 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J365" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -18014,11 +16188,6 @@
           <t>ÇAMBEL MAH. ÇAMBEL MAH. YOLU KÜME EVLERİ NO: 351 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J366" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -18062,11 +16231,6 @@
           <t>MEVLANA MAH. 1700 SK. NO: 69 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J367" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -18110,11 +16274,6 @@
           <t>BAHAR MAHALLESİ HALİDE EDİP ADIVAR CADDESİ BAĞKUR SİTESİ A BLOK Apt. NO: 66/21 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J368" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -18158,11 +16317,6 @@
           <t>KAZIMDİRİK MAH. ÜNİVERSİTE CAD. NO: 94 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J369" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -18206,11 +16360,6 @@
           <t>HÜRRİYET MAHALLESİ AYDERESİ SULUK KÜME EVLERİ NO: 73 A/_ KEMALPAŞA/İZMİR</t>
         </is>
       </c>
-      <c r="J370" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -18254,11 +16403,6 @@
           <t>BAĞYURDU 29 EKİM MAH. MAHALLESİ CUMHURİYET ALANI MEYDANI NO:12 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J371" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -18302,11 +16446,6 @@
           <t>ALTINORDU MAH. ANAFARTALAR CAD. NO: 794A İÇ KAPI NO: A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J372" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -18350,11 +16489,6 @@
           <t>ÖZGÜR MAH. ESKİİZMİR CAD. NO: 792/1A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J373" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -18398,11 +16532,6 @@
           <t>75.YIL CUMHURİYET MAHALLESİ ŞERBETÇİ SK. NO:18 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J374" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -18446,11 +16575,6 @@
           <t>EĞRİDERE MAH. DEFNE SK. NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J375" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -18494,11 +16618,6 @@
           <t>ALSANCAK MAHALLESİ MAHMUT ESAT BOZKURT CADDESİ ÖZSÜNGERCİLER BLOK NO: 39 İÇ KAPI NO: 2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J376" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -18542,11 +16661,6 @@
           <t>75.YIL CUMHURİYET MAHALLESİ ÖREN İZMİR CAD. NO:67/2 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J377" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -18590,11 +16704,6 @@
           <t>YILDIRIMBEYAZIT MAHALLESİ 5110 SOKAK NO: 2 A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J378" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -18638,11 +16747,6 @@
           <t>BENGİLER MAHALLESİ ÜRKMEZ CADDESI NO:99/A SEFERİHİSAR / İZMİR</t>
         </is>
       </c>
-      <c r="J379" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -18686,11 +16790,6 @@
           <t>REİS MAHALLESİ ÖNDER CAD. NO:81/1-A YEŞİLYURT KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J380" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -18734,11 +16833,6 @@
           <t>ÇAKALTEPE MAH. ÇAKALTEPE KÜME EVLERİ NO: 55 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J381" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -18782,11 +16876,6 @@
           <t>YILDIZ MAH. 220/16 SK. NO: 21-25A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J382" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -18830,11 +16919,6 @@
           <t>EGEMENLİK MAHALLESİ 6106 SOKAK NO: 42/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J383" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
@@ -18878,11 +16962,6 @@
           <t>ALTIEVLER MAH. YILDIRIM KEMAL CAD. NO: 13/1 NARLIDERE / İZMİR</t>
         </is>
       </c>
-      <c r="J384" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
@@ -18926,11 +17005,6 @@
           <t>GÜRPINAR MAHALLESİ 7232/7 SOKAK NO:15/A AY-KOOP Sit. BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J385" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
@@ -18974,11 +17048,6 @@
           <t>ÇİMENTEPE MAHALLESİ 586 SOKAK NO:5 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J386" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
@@ -19022,11 +17091,6 @@
           <t>KARACAOĞLAN MAH. 6244 SK. NO: 103A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J387" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
@@ -19070,11 +17134,6 @@
           <t>YEŞİLKÖY MAHALLESİ TEPE ARASI YOLU (KÜME EVLER) NO:49 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J388" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
@@ -19118,11 +17177,6 @@
           <t>GENERAL KAZIM ÖZALP MAH. 47/4 SK. NO: 1 İÇ KAPI NO: 4 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J389" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
@@ -19166,11 +17220,6 @@
           <t>MALTEPE MAHALLESİ MALTEPE CADDESI NO:34/2A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J390" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
@@ -19214,11 +17263,6 @@
           <t>ÇAKALTEPE MAHALLESİ 7338 SK. NO: 7 /1/ MENDERES/İZMİR</t>
         </is>
       </c>
-      <c r="J391" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
@@ -19262,11 +17306,6 @@
           <t>ÖREN 75.YIL CUMHURİYET MAH. KOCABAĞLAR SK. İNAN HAYVANCILIK NO: 12 İÇ KAPI NO: 1 KEMALPAŞA / İZMİR</t>
         </is>
       </c>
-      <c r="J392" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
@@ -19310,11 +17349,6 @@
           <t>ÖRNEKKÖY MAHALLESİ 7532 SK. NO: 52A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J393" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
@@ -19358,11 +17392,6 @@
           <t>ZEYTİNLİK MAHALLESİ 1135 SK. NO: 6 B/6B KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J394" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
@@ -19406,11 +17435,6 @@
           <t>MANAVKUYU MAHALLESİ SAKARYA CAD. ÇAĞLAR APT. NO: 102 1A BAYRAKLI/İZMİR</t>
         </is>
       </c>
-      <c r="J395" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
@@ -19454,11 +17478,6 @@
           <t>GÜRPINAR MAH. 7232/7 SK. AY-KOOP SİTESİ NO: 27A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J396" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
-        </is>
-      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
@@ -19500,11 +17519,6 @@
       <c r="I397" s="2" t="inlineStr">
         <is>
           <t>ÖZBEK MAHALLESİ 6109 SK. NO: 2 URLA/İZMİR</t>
-        </is>
-      </c>
-      <c r="J397" s="2" t="inlineStr">
-        <is>
-          <t>08 - CANLI HAYVAN, KANATLI, ET VE ET ÜRÜNLERİ GRUBU</t>
         </is>
       </c>
     </row>
